--- a/list of comands.xlsx
+++ b/list of comands.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Диана\Documents\семестр 1-2-3-4\olimp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F84F42-D8A6-4FB8-8E05-A94421D8BA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501A8A88-65F8-4353-9FBD-FAB917804CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5D75F3AB-3286-4236-9FAE-CBD0CB53D36E}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
-  <si>
-    <t>Эдельвейс</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
   <si>
     <t xml:space="preserve">Кузнецова Анна </t>
   </si>
@@ -94,7 +91,31 @@
     <t>Зайцев Михаил Сергеевич</t>
   </si>
   <si>
-    <t>Грицких Григорий Вячеславович</t>
+    <t>Геологи Будущего</t>
+  </si>
+  <si>
+    <t>Гео Next</t>
+  </si>
+  <si>
+    <t>Карцева Ирина</t>
+  </si>
+  <si>
+    <t>Ле Нгок Лой</t>
+  </si>
+  <si>
+    <t>Боботов Антон</t>
+  </si>
+  <si>
+    <t>Козлов Данила</t>
+  </si>
+  <si>
+    <t>Коняхина Ульяна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кузнецов Владимир Алексеевич </t>
+  </si>
+  <si>
+    <t>Грицких Григорий Александрович</t>
   </si>
 </sst>
 </file>
@@ -447,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0CE9D9-1464-4836-8DB0-7C2E5BAAE051}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,156 +483,233 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="C14" t="s">
-        <v>11</v>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/list of comands.xlsx
+++ b/list of comands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Диана\Documents\семестр 1-2-3-4\olimp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501A8A88-65F8-4353-9FBD-FAB917804CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CE78AB-F4BA-43E4-9F22-344E7B9E3111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5D75F3AB-3286-4236-9FAE-CBD0CB53D36E}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t xml:space="preserve">Кузнецова Анна </t>
   </si>
   <si>
-    <t>Иванов Иван</t>
-  </si>
-  <si>
     <t>Янтарь</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t>Грицких Григорий Александрович</t>
+  </si>
+  <si>
+    <t>Иванов Иван Иванович</t>
   </si>
 </sst>
 </file>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0CE9D9-1464-4836-8DB0-7C2E5BAAE051}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -483,233 +483,233 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
